--- a/wz/expdata/2003.xlsx
+++ b/wz/expdata/2003.xlsx
@@ -65,13 +65,13 @@
     <t>col</t>
   </si>
   <si>
-    <t>CDF</t>
-  </si>
-  <si>
     <t>ppb</t>
   </si>
   <si>
     <t>target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDF(e) </t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -409,7 +409,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -444,10 +444,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>1960</v>
@@ -484,10 +484,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1960</v>
@@ -524,10 +524,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>1960</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>1960</v>
@@ -604,10 +604,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <v>1960</v>
@@ -644,10 +644,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="1">
         <v>1960</v>
@@ -684,10 +684,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>1960</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
         <v>1960</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="1">
         <v>1960</v>
@@ -804,10 +804,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1">
         <v>1960</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>1960</v>
